--- a/lo-alignment/Evaluation/url_selection_results.xlsx
+++ b/lo-alignment/Evaluation/url_selection_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\IS450-Project\lo-alignment\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3BE0D5-A4C4-404C-B20F-BAA5245A9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE5304-4DA5-404B-B4F4-9FD37E156DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,13 @@
     <sheet name="use_detailed" sheetId="7" r:id="rId7"/>
     <sheet name="bloom_summary" sheetId="8" r:id="rId8"/>
     <sheet name="bloom_detailed" sheetId="9" r:id="rId9"/>
-    <sheet name="MiniLM_summary" sheetId="10" r:id="rId10"/>
-    <sheet name="MiniLM_detailed" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="417">
   <si>
     <t>Selected URLs</t>
   </si>
@@ -1268,13 +1266,19 @@
     <t>Waterfall vs. Agile</t>
   </si>
   <si>
+    <t>num_los</t>
+  </si>
+  <si>
+    <t>num_covered_los</t>
+  </si>
+  <si>
     <t>lo_bloom</t>
   </si>
   <si>
+    <t>lo_complexity</t>
+  </si>
+  <si>
     <t>module_bloom</t>
-  </si>
-  <si>
-    <t>lo_complexity</t>
   </si>
   <si>
     <t>module_complexity</t>
@@ -1302,7 +1306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1314,14 +1318,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1359,13 +1355,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,2311 +1728,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F293D3C3-085A-4A16-9BE1-10B66F34F15F}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="55.86328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>178</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>26</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.69233171641826596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>168</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.66680701971054002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>263</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2">
-        <v>83.3333333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.63400845229625702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>118</v>
-      </c>
-      <c r="G5">
-        <v>82.352941176470495</v>
-      </c>
-      <c r="H5">
-        <v>0.60909756141550397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>473</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>54</v>
-      </c>
-      <c r="G6">
-        <v>77.7777777777777</v>
-      </c>
-      <c r="H6">
-        <v>0.59545318947897996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>220</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>82</v>
-      </c>
-      <c r="G7">
-        <v>81.818181818181799</v>
-      </c>
-      <c r="H7">
-        <v>0.536528809504075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>172</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>45.454545454545404</v>
-      </c>
-      <c r="H8">
-        <v>0.51640980081124699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>367</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>40</v>
-      </c>
-      <c r="G9">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.473689327637354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>79</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>40</v>
-      </c>
-      <c r="H10">
-        <v>0.45209933519363399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>38</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11">
-        <v>0.44092884100973601</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
-    <sortCondition descending="1" ref="H1:H11"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C830BB26-052A-4602-A6C6-D4C51C2C8EC5}">
-  <dimension ref="A1:G86"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2">
-        <v>0.55136334896087602</v>
-      </c>
-      <c r="F2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E3">
-        <v>0.56032681465148904</v>
-      </c>
-      <c r="F3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E4">
-        <v>0.58123350143432595</v>
-      </c>
-      <c r="F4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5">
-        <v>0.46857994794845498</v>
-      </c>
-      <c r="F5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6">
-        <v>0.52122151851653997</v>
-      </c>
-      <c r="F6" t="s">
-        <v>258</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7">
-        <v>0.49311375617980902</v>
-      </c>
-      <c r="F7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8">
-        <v>0.85204166173934903</v>
-      </c>
-      <c r="F8" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9">
-        <v>0.52016127109527499</v>
-      </c>
-      <c r="F9" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10">
-        <v>1.00000011920928</v>
-      </c>
-      <c r="F10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E11">
-        <v>0.51371538639068604</v>
-      </c>
-      <c r="F11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E12">
-        <v>0.33023053407669001</v>
-      </c>
-      <c r="F12" t="s">
-        <v>262</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13">
-        <v>0.78510737419128396</v>
-      </c>
-      <c r="F13" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14">
-        <v>0.65876567363739003</v>
-      </c>
-      <c r="F14" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15">
-        <v>0.52771604061126698</v>
-      </c>
-      <c r="F15" t="s">
-        <v>264</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16">
-        <v>0.64656555652618397</v>
-      </c>
-      <c r="F16" t="s">
-        <v>254</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17">
-        <v>0.81516242027282704</v>
-      </c>
-      <c r="F17" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18">
-        <v>0.52935361862182595</v>
-      </c>
-      <c r="F18" t="s">
-        <v>275</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>0.60623621940612704</v>
-      </c>
-      <c r="F19" t="s">
-        <v>276</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>79</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>277</v>
-      </c>
-      <c r="E20">
-        <v>0.47858569025993303</v>
-      </c>
-      <c r="F20" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>79</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E21">
-        <v>0.23388513922691301</v>
-      </c>
-      <c r="F21" t="s">
-        <v>279</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>280</v>
-      </c>
-      <c r="E22">
-        <v>0.387104392051696</v>
-      </c>
-      <c r="F22" t="s">
-        <v>281</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>79</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E23">
-        <v>0.55468523502349798</v>
-      </c>
-      <c r="F23" t="s">
-        <v>276</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>283</v>
-      </c>
-      <c r="E24">
-        <v>0.79609334468841497</v>
-      </c>
-      <c r="F24" t="s">
-        <v>284</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>113</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>285</v>
-      </c>
-      <c r="E25">
-        <v>0.63206148147582997</v>
-      </c>
-      <c r="F25" t="s">
-        <v>286</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>113</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>287</v>
-      </c>
-      <c r="E26">
-        <v>0.60421335697173995</v>
-      </c>
-      <c r="F26" t="s">
-        <v>284</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>113</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>288</v>
-      </c>
-      <c r="E27">
-        <v>0.41892915964126498</v>
-      </c>
-      <c r="F27" t="s">
-        <v>289</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>290</v>
-      </c>
-      <c r="E28">
-        <v>0.32197594642639099</v>
-      </c>
-      <c r="F28" t="s">
-        <v>291</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>113</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>292</v>
-      </c>
-      <c r="E29">
-        <v>0.51128363609313898</v>
-      </c>
-      <c r="F29" t="s">
-        <v>293</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>113</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>294</v>
-      </c>
-      <c r="E30">
-        <v>0.166197478771209</v>
-      </c>
-      <c r="F30" t="s">
-        <v>295</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>113</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>296</v>
-      </c>
-      <c r="E31">
-        <v>7.6676324009895297E-2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>263</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>298</v>
-      </c>
-      <c r="E32">
-        <v>0.80799138545989901</v>
-      </c>
-      <c r="F32" t="s">
-        <v>299</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>263</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>300</v>
-      </c>
-      <c r="E33">
-        <v>0.62487721443176203</v>
-      </c>
-      <c r="F33" t="s">
-        <v>301</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>263</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E34">
-        <v>0.61221432685851995</v>
-      </c>
-      <c r="F34" t="s">
-        <v>303</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>263</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>304</v>
-      </c>
-      <c r="E35">
-        <v>0.68038213253021196</v>
-      </c>
-      <c r="F35" t="s">
-        <v>305</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>263</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>306</v>
-      </c>
-      <c r="E36">
-        <v>0.49954560399055398</v>
-      </c>
-      <c r="F36" t="s">
-        <v>307</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>263</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>308</v>
-      </c>
-      <c r="E37">
-        <v>0.57904005050659102</v>
-      </c>
-      <c r="F37" t="s">
-        <v>309</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>172</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>310</v>
-      </c>
-      <c r="E38">
-        <v>0.71379828453063898</v>
-      </c>
-      <c r="F38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>172</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>311</v>
-      </c>
-      <c r="E39">
-        <v>0.801877200603485</v>
-      </c>
-      <c r="F39" t="s">
-        <v>150</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>172</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>312</v>
-      </c>
-      <c r="E40">
-        <v>0.63779854774475098</v>
-      </c>
-      <c r="F40" t="s">
-        <v>313</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>172</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>314</v>
-      </c>
-      <c r="E41">
-        <v>0.83681070804595903</v>
-      </c>
-      <c r="F41" t="s">
-        <v>154</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>172</v>
-      </c>
-      <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>315</v>
-      </c>
-      <c r="E42">
-        <v>0.54002070426940896</v>
-      </c>
-      <c r="F42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>172</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>316</v>
-      </c>
-      <c r="E43">
-        <v>0.33636644482612599</v>
-      </c>
-      <c r="F43" t="s">
-        <v>317</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>172</v>
-      </c>
-      <c r="B44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>318</v>
-      </c>
-      <c r="E44">
-        <v>0.31321701407432501</v>
-      </c>
-      <c r="F44" t="s">
-        <v>146</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>172</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>319</v>
-      </c>
-      <c r="E45">
-        <v>0.41171240806579501</v>
-      </c>
-      <c r="F45" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>172</v>
-      </c>
-      <c r="B46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" t="s">
-        <v>320</v>
-      </c>
-      <c r="E46">
-        <v>0.45734578371047901</v>
-      </c>
-      <c r="F46" t="s">
-        <v>321</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>172</v>
-      </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>257</v>
-      </c>
-      <c r="E47">
-        <v>0.32913884520530701</v>
-      </c>
-      <c r="F47" t="s">
-        <v>317</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>172</v>
-      </c>
-      <c r="B48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
-        <v>322</v>
-      </c>
-      <c r="E48">
-        <v>0.30242186784744202</v>
-      </c>
-      <c r="F48" t="s">
-        <v>323</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>178</v>
-      </c>
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>324</v>
-      </c>
-      <c r="E49">
-        <v>0.58341330289840698</v>
-      </c>
-      <c r="F49" t="s">
-        <v>259</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>178</v>
-      </c>
-      <c r="B50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s">
-        <v>325</v>
-      </c>
-      <c r="E50">
-        <v>0.62211894989013605</v>
-      </c>
-      <c r="F50" t="s">
-        <v>326</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>178</v>
-      </c>
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E51">
-        <v>0.999999940395355</v>
-      </c>
-      <c r="F51" t="s">
-        <v>259</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>178</v>
-      </c>
-      <c r="B52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>327</v>
-      </c>
-      <c r="E52">
-        <v>0.56379467248916604</v>
-      </c>
-      <c r="F52" t="s">
-        <v>328</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>168</v>
-      </c>
-      <c r="B53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53">
-        <v>0.75830477476119995</v>
-      </c>
-      <c r="F53" t="s">
-        <v>329</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>168</v>
-      </c>
-      <c r="B54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>330</v>
-      </c>
-      <c r="E54">
-        <v>0.67096638679504395</v>
-      </c>
-      <c r="F54" t="s">
-        <v>329</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>168</v>
-      </c>
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>331</v>
-      </c>
-      <c r="E55">
-        <v>0.61437815427780096</v>
-      </c>
-      <c r="F55" t="s">
-        <v>332</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>168</v>
-      </c>
-      <c r="B56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>333</v>
-      </c>
-      <c r="E56">
-        <v>0.66681081056594804</v>
-      </c>
-      <c r="F56" t="s">
-        <v>329</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>168</v>
-      </c>
-      <c r="B57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>334</v>
-      </c>
-      <c r="E57">
-        <v>0.62357497215270996</v>
-      </c>
-      <c r="F57" t="s">
-        <v>335</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>473</v>
-      </c>
-      <c r="B58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58">
-        <v>0.81058669090270996</v>
-      </c>
-      <c r="F58" t="s">
-        <v>336</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>473</v>
-      </c>
-      <c r="B59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
-        <v>337</v>
-      </c>
-      <c r="E59">
-        <v>0.63717633485794001</v>
-      </c>
-      <c r="F59" t="s">
-        <v>336</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>473</v>
-      </c>
-      <c r="B60" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
-        <v>338</v>
-      </c>
-      <c r="E60">
-        <v>0.78117465972900302</v>
-      </c>
-      <c r="F60" t="s">
-        <v>336</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>473</v>
-      </c>
-      <c r="B61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>339</v>
-      </c>
-      <c r="E61">
-        <v>0.28722637891769398</v>
-      </c>
-      <c r="F61" t="s">
-        <v>340</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>473</v>
-      </c>
-      <c r="B62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>341</v>
-      </c>
-      <c r="E62">
-        <v>0.57137405872344904</v>
-      </c>
-      <c r="F62" t="s">
-        <v>342</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>473</v>
-      </c>
-      <c r="B63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" t="s">
-        <v>343</v>
-      </c>
-      <c r="E63">
-        <v>0.53429913520812899</v>
-      </c>
-      <c r="F63" t="s">
-        <v>344</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>473</v>
-      </c>
-      <c r="B64" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" t="s">
-        <v>345</v>
-      </c>
-      <c r="E64">
-        <v>0.52938592433929399</v>
-      </c>
-      <c r="F64" t="s">
-        <v>336</v>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>473</v>
-      </c>
-      <c r="B65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>346</v>
-      </c>
-      <c r="E65">
-        <v>0.49255818128585799</v>
-      </c>
-      <c r="F65" t="s">
-        <v>340</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>473</v>
-      </c>
-      <c r="B66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>347</v>
-      </c>
-      <c r="E66">
-        <v>0.71529734134673995</v>
-      </c>
-      <c r="F66" t="s">
-        <v>336</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>220</v>
-      </c>
-      <c r="B67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" t="s">
-        <v>348</v>
-      </c>
-      <c r="E67">
-        <v>0.61870300769805897</v>
-      </c>
-      <c r="F67" t="s">
-        <v>349</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>220</v>
-      </c>
-      <c r="B68" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" t="s">
-        <v>350</v>
-      </c>
-      <c r="E68">
-        <v>0.61475110054016102</v>
-      </c>
-      <c r="F68" t="s">
-        <v>351</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>220</v>
-      </c>
-      <c r="B69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" t="s">
-        <v>352</v>
-      </c>
-      <c r="E69">
-        <v>0.60930895805358798</v>
-      </c>
-      <c r="F69" t="s">
-        <v>353</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>220</v>
-      </c>
-      <c r="B70" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>354</v>
-      </c>
-      <c r="E70">
-        <v>0.54591864347457797</v>
-      </c>
-      <c r="F70" t="s">
-        <v>355</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71">
-        <v>220</v>
-      </c>
-      <c r="B71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
-        <v>356</v>
-      </c>
-      <c r="E71">
-        <v>0.62323528528213501</v>
-      </c>
-      <c r="F71" t="s">
-        <v>357</v>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>220</v>
-      </c>
-      <c r="B72" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>358</v>
-      </c>
-      <c r="E72">
-        <v>0.59634649753570501</v>
-      </c>
-      <c r="F72" t="s">
-        <v>349</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>220</v>
-      </c>
-      <c r="B73" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" t="s">
-        <v>359</v>
-      </c>
-      <c r="E73">
-        <v>0.51742982864379805</v>
-      </c>
-      <c r="F73" t="s">
-        <v>360</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>220</v>
-      </c>
-      <c r="B74" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" t="s">
-        <v>296</v>
-      </c>
-      <c r="E74">
-        <v>0.27563035488128601</v>
-      </c>
-      <c r="F74" t="s">
-        <v>361</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75">
-        <v>220</v>
-      </c>
-      <c r="B75" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" t="s">
-        <v>362</v>
-      </c>
-      <c r="E75">
-        <v>0.47598618268966603</v>
-      </c>
-      <c r="F75" t="s">
-        <v>363</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76">
-        <v>220</v>
-      </c>
-      <c r="B76" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" t="s">
-        <v>364</v>
-      </c>
-      <c r="E76">
-        <v>0.51074743270874001</v>
-      </c>
-      <c r="F76" t="s">
-        <v>357</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77">
-        <v>220</v>
-      </c>
-      <c r="B77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" t="s">
-        <v>325</v>
-      </c>
-      <c r="E77">
-        <v>0.51375961303710904</v>
-      </c>
-      <c r="F77" t="s">
-        <v>365</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78">
-        <v>367</v>
-      </c>
-      <c r="B78" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>57</v>
-      </c>
-      <c r="E78">
-        <v>0.72376686334609897</v>
-      </c>
-      <c r="F78" t="s">
-        <v>366</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79">
-        <v>367</v>
-      </c>
-      <c r="B79" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>367</v>
-      </c>
-      <c r="E79">
-        <v>0.54357683658599798</v>
-      </c>
-      <c r="F79" t="s">
-        <v>222</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>367</v>
-      </c>
-      <c r="B80" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>368</v>
-      </c>
-      <c r="E80">
-        <v>0.43453967571258501</v>
-      </c>
-      <c r="F80" t="s">
-        <v>369</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>367</v>
-      </c>
-      <c r="B81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>370</v>
-      </c>
-      <c r="E81">
-        <v>0.41230723261833102</v>
-      </c>
-      <c r="F81" t="s">
-        <v>371</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>367</v>
-      </c>
-      <c r="B82" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" t="s">
-        <v>372</v>
-      </c>
-      <c r="E82">
-        <v>0.32450836896896301</v>
-      </c>
-      <c r="F82" t="s">
-        <v>373</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>367</v>
-      </c>
-      <c r="B83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" t="s">
-        <v>374</v>
-      </c>
-      <c r="E83">
-        <v>0.45820394158363298</v>
-      </c>
-      <c r="F83" t="s">
-        <v>369</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>367</v>
-      </c>
-      <c r="B84" t="s">
-        <v>57</v>
-      </c>
-      <c r="C84" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" t="s">
-        <v>375</v>
-      </c>
-      <c r="E84">
-        <v>0.44988578557968101</v>
-      </c>
-      <c r="F84" t="s">
-        <v>222</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>367</v>
-      </c>
-      <c r="B85" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" t="s">
-        <v>376</v>
-      </c>
-      <c r="E85">
-        <v>0.52823519706725997</v>
-      </c>
-      <c r="F85" t="s">
-        <v>222</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>367</v>
-      </c>
-      <c r="B86" t="s">
-        <v>57</v>
-      </c>
-      <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" t="s">
-        <v>377</v>
-      </c>
-      <c r="E86">
-        <v>0.38818004727363498</v>
-      </c>
-      <c r="F86" t="s">
-        <v>378</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -5098,16 +2792,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="62.53125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -5241,192 +2932,165 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>112</v>
+        <v>473</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="G6">
-        <v>82.35294117647058</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="H6">
-        <v>0.60909759647705974</v>
+        <v>0.59545319610171843</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>473</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G7">
-        <v>77.777777777777786</v>
+        <v>81.818181818181827</v>
       </c>
       <c r="H7">
-        <v>0.59545319610171843</v>
+        <v>0.5365288257598877</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>11</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>81.818181818181827</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="H8">
-        <v>0.5365288257598877</v>
+        <v>0.5164098279042677</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>172</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
       <c r="F9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>45.454545454545453</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="H9">
-        <v>0.5164098279042677</v>
+        <v>0.47368939055336839</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
         <v>40</v>
       </c>
-      <c r="G10">
-        <v>33.333333333333329</v>
-      </c>
       <c r="H10">
-        <v>0.47368939055336839</v>
+        <v>0.45209934711456301</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>0.45209934711456301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>113</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>38</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12">
         <v>0.44092884100973601</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H12">
-    <sortCondition descending="1" ref="H1:H12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
+    <sortCondition descending="1" ref="H1:H11"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5434,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7420,7 +5084,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7429,13 +5092,10 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="48.265625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -7735,8 +5395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9726,18 +7386,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="55.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -9762,8 +7419,14 @@
       <c r="H1" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>178</v>
       </c>
@@ -9786,10 +7449,16 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>0.66500779688358302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.68503905013203625</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>168</v>
       </c>
@@ -9812,10 +7481,16 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>0.64728546619415195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.64684444069862368</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>263</v>
       </c>
@@ -9835,13 +7510,19 @@
         <v>39</v>
       </c>
       <c r="G4">
-        <v>83.3333333333333</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="H4">
-        <v>0.62397580842177003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.62397580842177069</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>473</v>
       </c>
@@ -9861,13 +7542,19 @@
         <v>54</v>
       </c>
       <c r="G5">
-        <v>77.7777777777777</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="H5">
-        <v>0.59545318947897996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.59545318947898018</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>16</v>
       </c>
@@ -9887,13 +7574,19 @@
         <v>118</v>
       </c>
       <c r="G6">
-        <v>64.705882352941103</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="H6">
-        <v>0.58451102568822699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.57864268334472879</v>
+      </c>
+      <c r="I6">
+        <v>34</v>
+      </c>
+      <c r="J6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>220</v>
       </c>
@@ -9913,13 +7606,19 @@
         <v>82</v>
       </c>
       <c r="G7">
-        <v>54.545454545454497</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="H7">
-        <v>0.52543425261974297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.52543425261974341</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>172</v>
       </c>
@@ -9939,13 +7638,19 @@
         <v>25</v>
       </c>
       <c r="G8">
-        <v>45.454545454545404</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="H8">
-        <v>0.50950688421726198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.49058931077068502</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>367</v>
       </c>
@@ -9965,13 +7670,19 @@
         <v>40</v>
       </c>
       <c r="G9">
-        <v>33.3333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="H9">
-        <v>0.47188650336530402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.47188650336530469</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>79</v>
       </c>
@@ -9994,10 +7705,16 @@
         <v>40</v>
       </c>
       <c r="H10">
-        <v>0.43555673062801298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.44603697299957279</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>113</v>
       </c>
@@ -10020,11 +7737,17 @@
         <v>37.5</v>
       </c>
       <c r="H11">
-        <v>0.42867305008694501</v>
+        <v>0.42150070620700719</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
     <sortCondition descending="1" ref="H1:H11"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10035,45 +7758,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>408</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -10090,7 +7813,7 @@
         <v>249</v>
       </c>
       <c r="E2">
-        <v>0.55136334896087646</v>
+        <v>0.52379518151283266</v>
       </c>
       <c r="F2" t="s">
         <v>250</v>
@@ -10099,16 +7822,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -10134,16 +7857,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I3">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -10169,16 +7892,16 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I4">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -10204,16 +7927,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I5">
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
@@ -10239,16 +7962,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I6">
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -10274,16 +7997,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -10309,16 +8032,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -10344,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I9">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -10379,16 +8102,16 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I10">
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -10414,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -10449,16 +8172,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I12">
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
@@ -10475,7 +8198,7 @@
         <v>268</v>
       </c>
       <c r="E13">
-        <v>0.78510737419128418</v>
+        <v>0.74585200548171993</v>
       </c>
       <c r="F13" t="s">
         <v>269</v>
@@ -10484,16 +8207,16 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I13">
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
@@ -10510,7 +8233,7 @@
         <v>270</v>
       </c>
       <c r="E14">
-        <v>0.65876567363739014</v>
+        <v>0.62582738995552056</v>
       </c>
       <c r="F14" t="s">
         <v>269</v>
@@ -10519,16 +8242,16 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I14">
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
@@ -10554,16 +8277,16 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I15">
         <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
@@ -10589,16 +8312,16 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I16">
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
@@ -10624,16 +8347,16 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I17">
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
@@ -10659,16 +8382,16 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I18">
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
@@ -10685,7 +8408,7 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>0.60623621940612793</v>
+        <v>0.57592440843582149</v>
       </c>
       <c r="F19" t="s">
         <v>276</v>
@@ -10694,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -10703,7 +8426,7 @@
         <v>412</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
@@ -10720,7 +8443,7 @@
         <v>277</v>
       </c>
       <c r="E20">
-        <v>0.45465640574693672</v>
+        <v>0.47858569025993342</v>
       </c>
       <c r="F20" t="s">
         <v>276</v>
@@ -10729,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -10738,7 +8461,7 @@
         <v>412</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
@@ -10755,7 +8478,7 @@
         <v>278</v>
       </c>
       <c r="E21">
-        <v>0.22219088226556771</v>
+        <v>0.2338851392269134</v>
       </c>
       <c r="F21" t="s">
         <v>279</v>
@@ -10764,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -10773,7 +8496,7 @@
         <v>412</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -10790,7 +8513,7 @@
         <v>280</v>
       </c>
       <c r="E22">
-        <v>0.36774917244911193</v>
+        <v>0.38710439205169678</v>
       </c>
       <c r="F22" t="s">
         <v>281</v>
@@ -10799,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -10808,7 +8531,7 @@
         <v>412</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -10825,7 +8548,7 @@
         <v>282</v>
       </c>
       <c r="E23">
-        <v>0.52695097327232354</v>
+        <v>0.55468523502349854</v>
       </c>
       <c r="F23" t="s">
         <v>276</v>
@@ -10834,7 +8557,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -10843,7 +8566,7 @@
         <v>412</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
@@ -10860,7 +8583,7 @@
         <v>283</v>
       </c>
       <c r="E24">
-        <v>0.79609334468841553</v>
+        <v>0.75628867745399475</v>
       </c>
       <c r="F24" t="s">
         <v>284</v>
@@ -10869,16 +8592,16 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I24">
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
@@ -10904,16 +8627,16 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -10930,7 +8653,7 @@
         <v>287</v>
       </c>
       <c r="E26">
-        <v>0.60421335697174072</v>
+        <v>0.57400268912315366</v>
       </c>
       <c r="F26" t="s">
         <v>284</v>
@@ -10939,16 +8662,16 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I26">
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
@@ -10965,7 +8688,7 @@
         <v>288</v>
       </c>
       <c r="E27">
-        <v>0.39798270165920252</v>
+        <v>0.41892915964126581</v>
       </c>
       <c r="F27" t="s">
         <v>289</v>
@@ -10974,16 +8697,16 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I27">
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
@@ -11009,16 +8732,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I28">
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
@@ -11044,16 +8767,16 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I29">
         <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
@@ -11070,7 +8793,7 @@
         <v>294</v>
       </c>
       <c r="E30">
-        <v>0.16619747877120969</v>
+        <v>0.15788760483264919</v>
       </c>
       <c r="F30" t="s">
         <v>295</v>
@@ -11079,16 +8802,16 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I30">
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
@@ -11114,16 +8837,16 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
@@ -11149,13 +8872,13 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I32">
         <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -11184,13 +8907,13 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I33">
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -11219,13 +8942,13 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I34">
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -11254,13 +8977,13 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I35">
         <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -11289,13 +9012,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I36">
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -11324,13 +9047,13 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I37">
         <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K37">
         <v>5</v>
@@ -11350,7 +9073,7 @@
         <v>310</v>
       </c>
       <c r="E38">
-        <v>0.71379828453063965</v>
+        <v>0.67810837030410764</v>
       </c>
       <c r="F38" t="s">
         <v>154</v>
@@ -11359,16 +9082,16 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I38">
         <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -11385,7 +9108,7 @@
         <v>311</v>
       </c>
       <c r="E39">
-        <v>0.80187720060348511</v>
+        <v>0.76178334057331076</v>
       </c>
       <c r="F39" t="s">
         <v>150</v>
@@ -11394,16 +9117,16 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I39">
         <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -11420,7 +9143,7 @@
         <v>312</v>
       </c>
       <c r="E40">
-        <v>0.63779854774475098</v>
+        <v>0.60590862035751336</v>
       </c>
       <c r="F40" t="s">
         <v>313</v>
@@ -11429,16 +9152,16 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I40">
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
@@ -11455,7 +9178,7 @@
         <v>314</v>
       </c>
       <c r="E41">
-        <v>0.83681070804595947</v>
+        <v>0.79497017264366143</v>
       </c>
       <c r="F41" t="s">
         <v>154</v>
@@ -11464,16 +9187,16 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I41">
         <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
@@ -11490,7 +9213,7 @@
         <v>315</v>
       </c>
       <c r="E42">
-        <v>0.54002070426940918</v>
+        <v>0.51301966905593865</v>
       </c>
       <c r="F42" t="s">
         <v>150</v>
@@ -11499,16 +9222,16 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I42">
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
@@ -11534,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
@@ -11569,16 +9292,16 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I44">
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K44">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
@@ -11604,16 +9327,16 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
@@ -11639,16 +9362,16 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K46">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
@@ -11665,7 +9388,7 @@
         <v>257</v>
       </c>
       <c r="E47">
-        <v>0.32913884520530701</v>
+        <v>0.31268190294504161</v>
       </c>
       <c r="F47" t="s">
         <v>317</v>
@@ -11674,16 +9397,16 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I47">
         <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
@@ -11700,7 +9423,7 @@
         <v>322</v>
       </c>
       <c r="E48">
-        <v>0.30242186784744263</v>
+        <v>0.28730077445507041</v>
       </c>
       <c r="F48" t="s">
         <v>323</v>
@@ -11709,16 +9432,16 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I48">
         <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
@@ -11735,7 +9458,7 @@
         <v>324</v>
       </c>
       <c r="E49">
-        <v>0.58341330289840698</v>
+        <v>0.55424263775348659</v>
       </c>
       <c r="F49" t="s">
         <v>259</v>
@@ -11744,16 +9467,16 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I49">
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
@@ -11770,7 +9493,7 @@
         <v>325</v>
       </c>
       <c r="E50">
-        <v>0.59101300239562982</v>
+        <v>0.62211894989013672</v>
       </c>
       <c r="F50" t="s">
         <v>326</v>
@@ -11779,16 +9502,16 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
@@ -11805,7 +9528,7 @@
         <v>259</v>
       </c>
       <c r="E51">
-        <v>0.94999994337558757</v>
+        <v>0.99999994039535522</v>
       </c>
       <c r="F51" t="s">
         <v>259</v>
@@ -11814,16 +9537,16 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
@@ -11840,7 +9563,7 @@
         <v>327</v>
       </c>
       <c r="E52">
-        <v>0.53560493886470795</v>
+        <v>0.56379467248916626</v>
       </c>
       <c r="F52" t="s">
         <v>328</v>
@@ -11849,16 +9572,16 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K52">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
@@ -11875,7 +9598,7 @@
         <v>46</v>
       </c>
       <c r="E53">
-        <v>0.75830477476119995</v>
+        <v>0.72038953602313993</v>
       </c>
       <c r="F53" t="s">
         <v>329</v>
@@ -11884,7 +9607,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I53">
         <v>6</v>
@@ -11893,7 +9616,7 @@
         <v>412</v>
       </c>
       <c r="K53">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
@@ -11910,7 +9633,7 @@
         <v>330</v>
       </c>
       <c r="E54">
-        <v>0.63741806745529173</v>
+        <v>0.67096638679504395</v>
       </c>
       <c r="F54" t="s">
         <v>329</v>
@@ -11919,7 +9642,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -11928,7 +9651,7 @@
         <v>412</v>
       </c>
       <c r="K54">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
@@ -11954,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I55">
         <v>4</v>
@@ -11963,7 +9686,7 @@
         <v>412</v>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
@@ -11980,7 +9703,7 @@
         <v>333</v>
       </c>
       <c r="E56">
-        <v>0.633470270037651</v>
+        <v>0.66681081056594849</v>
       </c>
       <c r="F56" t="s">
         <v>329</v>
@@ -11989,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -11998,7 +9721,7 @@
         <v>412</v>
       </c>
       <c r="K56">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
@@ -12015,7 +9738,7 @@
         <v>334</v>
       </c>
       <c r="E57">
-        <v>0.62357497215270996</v>
+        <v>0.59239622354507449</v>
       </c>
       <c r="F57" t="s">
         <v>335</v>
@@ -12024,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I57">
         <v>6</v>
@@ -12033,7 +9756,7 @@
         <v>412</v>
       </c>
       <c r="K57">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
@@ -12059,13 +9782,13 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I58">
         <v>6</v>
       </c>
       <c r="J58" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -12094,13 +9817,13 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I59">
         <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K59">
         <v>6</v>
@@ -12129,13 +9852,13 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I60">
         <v>6</v>
       </c>
       <c r="J60" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K60">
         <v>6</v>
@@ -12164,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I61">
         <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K61">
         <v>6</v>
@@ -12199,13 +9922,13 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I62">
         <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K62">
         <v>6</v>
@@ -12234,13 +9957,13 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I63">
         <v>6</v>
       </c>
       <c r="J63" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K63">
         <v>6</v>
@@ -12269,13 +9992,13 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I64">
         <v>6</v>
       </c>
       <c r="J64" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K64">
         <v>6</v>
@@ -12304,13 +10027,13 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I65">
         <v>6</v>
       </c>
       <c r="J65" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K65">
         <v>6</v>
@@ -12339,13 +10062,13 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I66">
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K66">
         <v>6</v>
@@ -12374,13 +10097,13 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I67">
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -12409,13 +10132,13 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I68">
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -12444,13 +10167,13 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I69">
         <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -12479,13 +10202,13 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I70">
         <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -12514,13 +10237,13 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I71">
         <v>6</v>
       </c>
       <c r="J71" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K71">
         <v>3</v>
@@ -12549,13 +10272,13 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I72">
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K72">
         <v>3</v>
@@ -12584,13 +10307,13 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I73">
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -12619,13 +10342,13 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K74">
         <v>3</v>
@@ -12654,13 +10377,13 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I75">
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -12689,13 +10412,13 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I76">
         <v>6</v>
       </c>
       <c r="J76" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K76">
         <v>3</v>
@@ -12724,13 +10447,13 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K77">
         <v>3</v>
@@ -12759,13 +10482,13 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I78">
         <v>6</v>
       </c>
       <c r="J78" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K78">
         <v>6</v>
@@ -12794,13 +10517,13 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I79">
         <v>6</v>
       </c>
       <c r="J79" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K79">
         <v>6</v>
@@ -12829,13 +10552,13 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I80">
         <v>6</v>
       </c>
       <c r="J80" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K80">
         <v>6</v>
@@ -12864,13 +10587,13 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I81">
         <v>6</v>
       </c>
       <c r="J81" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -12899,13 +10622,13 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K82">
         <v>6</v>
@@ -12934,13 +10657,13 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I83">
         <v>6</v>
       </c>
       <c r="J83" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K83">
         <v>6</v>
@@ -12969,13 +10692,13 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I84">
         <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K84">
         <v>6</v>
@@ -13004,13 +10727,13 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I85">
         <v>6</v>
       </c>
       <c r="J85" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K85">
         <v>6</v>
@@ -13039,13 +10762,13 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I86">
         <v>6</v>
       </c>
       <c r="J86" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K86">
         <v>6</v>
